--- a/CD/PTUD CSDL 2/classes/14ck1/Danh_sach-lop-14ck1.xlsx
+++ b/CD/PTUD CSDL 2/classes/14ck1/Danh_sach-lop-14ck1.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="188">
   <si>
     <t>Trần Xuân</t>
   </si>
@@ -673,9 +673,6 @@
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -683,6 +680,9 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -989,1705 +989,1711 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F120"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="F49" sqref="F49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.7109375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="20.5703125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="18.5703125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="19.28515625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="10.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="4" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="20.5703125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="18.5703125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="19.28515625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
     </row>
     <row r="2" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="3" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
+      <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="1">
         <v>1460005</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="1" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
+      <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="1">
         <v>1460017</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="1" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
+      <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="2">
         <v>1460037</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="1" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
+      <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="1">
         <v>1460058</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
+      <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="1">
         <v>1460071</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="1" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
+      <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="1">
         <v>1460146</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="1" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
+      <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9" s="1">
         <v>1460161</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="1" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
+      <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10" s="1">
         <v>1460210</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" s="1" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="2">
+      <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B11" s="1">
         <v>1460212</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" s="1" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="2">
+      <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B12" s="1">
         <v>1460245</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D12" s="1" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="2">
+      <c r="A13" s="1">
         <v>11</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B13" s="1">
         <v>1460248</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D13" s="1" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="2">
+      <c r="A14" s="1">
         <v>12</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B14" s="1">
         <v>1460310</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D14" s="1" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="2">
+      <c r="A15" s="1">
         <v>13</v>
       </c>
-      <c r="B15" s="2">
+      <c r="B15" s="1">
         <v>1460339</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="D15" s="1" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="2">
+      <c r="A16" s="1">
         <v>14</v>
       </c>
-      <c r="B16" s="2">
+      <c r="B16" s="1">
         <v>1460342</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C16" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="D16" s="1" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="2">
+      <c r="A17" s="1">
         <v>15</v>
       </c>
-      <c r="B17" s="2">
+      <c r="B17" s="1">
         <v>1460372</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C17" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="D17" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="2">
+      <c r="A18" s="1">
         <v>16</v>
       </c>
-      <c r="B18" s="2">
+      <c r="B18" s="1">
         <v>1460411</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C18" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="D18" s="1" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="2">
+      <c r="A19" s="1">
         <v>17</v>
       </c>
-      <c r="B19" s="2">
+      <c r="B19" s="1">
         <v>1460430</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C19" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="D19" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="2">
+      <c r="A20" s="1">
         <v>18</v>
       </c>
-      <c r="B20" s="2">
+      <c r="B20" s="1">
         <v>1460440</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C20" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="D20" s="1" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="2">
+      <c r="A21" s="1">
         <v>19</v>
       </c>
-      <c r="B21" s="2">
+      <c r="B21" s="1">
         <v>1460452</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C21" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D21" s="2" t="s">
+      <c r="D21" s="1" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="2">
+      <c r="A22" s="1">
         <v>20</v>
       </c>
-      <c r="B22" s="2">
+      <c r="B22" s="1">
         <v>1460468</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="C22" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D22" s="2" t="s">
+      <c r="D22" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="2">
+      <c r="A23" s="1">
         <v>21</v>
       </c>
-      <c r="B23" s="2">
+      <c r="B23" s="1">
         <v>1460470</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="C23" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="D23" s="2" t="s">
+      <c r="D23" s="1" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="2">
+      <c r="A24" s="1">
         <v>22</v>
       </c>
-      <c r="B24" s="2">
+      <c r="B24" s="1">
         <v>1460494</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="C24" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D24" s="2" t="s">
+      <c r="D24" s="1" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="2">
+      <c r="A25" s="1">
         <v>23</v>
       </c>
-      <c r="B25" s="2">
+      <c r="B25" s="1">
         <v>1460495</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="C25" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D25" s="2" t="s">
+      <c r="D25" s="1" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="2">
+      <c r="A26" s="1">
         <v>24</v>
       </c>
-      <c r="B26" s="2">
+      <c r="B26" s="1">
         <v>1460516</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="C26" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="D26" s="2" t="s">
+      <c r="D26" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="F26" s="2" t="s">
+      <c r="F26" s="1" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="2">
+      <c r="A27" s="1">
         <v>25</v>
       </c>
-      <c r="B27" s="2">
+      <c r="B27" s="1">
         <v>1460536</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="C27" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="D27" s="2" t="s">
+      <c r="D27" s="1" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="2">
+      <c r="A28" s="1">
         <v>26</v>
       </c>
-      <c r="B28" s="2">
+      <c r="B28" s="1">
         <v>1460542</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="C28" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="D28" s="2" t="s">
+      <c r="D28" s="1" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="2">
+      <c r="A29" s="1">
         <v>27</v>
       </c>
-      <c r="B29" s="2">
+      <c r="B29" s="1">
         <v>1460560</v>
       </c>
-      <c r="C29" s="2" t="s">
+      <c r="C29" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="D29" s="2" t="s">
+      <c r="D29" s="1" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="2">
+      <c r="A30" s="1">
         <v>28</v>
       </c>
-      <c r="B30" s="2">
+      <c r="B30" s="1">
         <v>1460620</v>
       </c>
-      <c r="C30" s="2" t="s">
+      <c r="C30" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="D30" s="2" t="s">
+      <c r="D30" s="1" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="2">
+      <c r="A31" s="1">
         <v>29</v>
       </c>
-      <c r="B31" s="2">
+      <c r="B31" s="1">
         <v>1460650</v>
       </c>
-      <c r="C31" s="2" t="s">
+      <c r="C31" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D31" s="2" t="s">
+      <c r="D31" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="2">
+      <c r="A32" s="1">
         <v>30</v>
       </c>
-      <c r="B32" s="2">
+      <c r="B32" s="1">
         <v>1460683</v>
       </c>
-      <c r="C32" s="2" t="s">
+      <c r="C32" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D32" s="2" t="s">
+      <c r="D32" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="2">
+    <row r="33" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
         <v>31</v>
       </c>
-      <c r="B33" s="2">
+      <c r="B33" s="1">
         <v>1460688</v>
       </c>
-      <c r="C33" s="2" t="s">
+      <c r="C33" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D33" s="2" t="s">
+      <c r="D33" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="2">
+    <row r="34" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
         <v>32</v>
       </c>
-      <c r="B34" s="2">
+      <c r="B34" s="1">
         <v>1460711</v>
       </c>
-      <c r="C34" s="2" t="s">
+      <c r="C34" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D34" s="2" t="s">
+      <c r="D34" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="2">
+    <row r="35" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
         <v>33</v>
       </c>
-      <c r="B35" s="2">
+      <c r="B35" s="1">
         <v>1460743</v>
       </c>
-      <c r="C35" s="2" t="s">
+      <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="2" t="s">
+      <c r="D35" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="2">
+    <row r="36" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
         <v>34</v>
       </c>
-      <c r="B36" s="2">
+      <c r="B36" s="1">
         <v>1460799</v>
       </c>
-      <c r="C36" s="2" t="s">
+      <c r="C36" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D36" s="2" t="s">
+      <c r="D36" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="2">
+    <row r="37" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
         <v>35</v>
       </c>
-      <c r="B37" s="2">
+      <c r="B37" s="1">
         <v>1460805</v>
       </c>
-      <c r="C37" s="2" t="s">
+      <c r="C37" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D37" s="2" t="s">
+      <c r="D37" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="2">
+    <row r="38" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
         <v>36</v>
       </c>
-      <c r="B38" s="2">
+      <c r="B38" s="1">
         <v>1460833</v>
       </c>
-      <c r="C38" s="2" t="s">
+      <c r="C38" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D38" s="2" t="s">
+      <c r="D38" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="2">
+    <row r="39" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
         <v>37</v>
       </c>
-      <c r="B39" s="2">
+      <c r="B39" s="1">
         <v>1460854</v>
       </c>
-      <c r="C39" s="2" t="s">
+      <c r="C39" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D39" s="2" t="s">
+      <c r="D39" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="2">
+    <row r="40" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
         <v>38</v>
       </c>
-      <c r="B40" s="2">
+      <c r="B40" s="1">
         <v>1460875</v>
       </c>
-      <c r="C40" s="2" t="s">
+      <c r="C40" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="D40" s="2" t="s">
+      <c r="D40" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="2">
+    <row r="41" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
         <v>39</v>
       </c>
-      <c r="B41" s="2">
+      <c r="B41" s="1">
         <v>1460888</v>
       </c>
-      <c r="C41" s="2" t="s">
+      <c r="C41" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D41" s="2" t="s">
+      <c r="D41" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="2">
+    <row r="42" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
         <v>40</v>
       </c>
-      <c r="B42" s="2">
+      <c r="B42" s="1">
         <v>1460890</v>
       </c>
-      <c r="C42" s="2" t="s">
+      <c r="C42" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D42" s="2" t="s">
+      <c r="D42" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="2">
+    <row r="43" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
         <v>41</v>
       </c>
-      <c r="B43" s="2">
+      <c r="B43" s="1">
         <v>1460901</v>
       </c>
-      <c r="C43" s="2" t="s">
+      <c r="C43" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D43" s="2" t="s">
+      <c r="D43" s="1" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="2">
+    <row r="44" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
         <v>42</v>
       </c>
-      <c r="B44" s="2">
+      <c r="B44" s="1">
         <v>1460917</v>
       </c>
-      <c r="C44" s="2" t="s">
+      <c r="C44" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D44" s="2" t="s">
+      <c r="D44" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="2">
+    <row r="45" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="1">
         <v>43</v>
       </c>
-      <c r="B45" s="2">
+      <c r="B45" s="1">
         <v>1460957</v>
       </c>
-      <c r="C45" s="2" t="s">
+      <c r="C45" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D45" s="2" t="s">
+      <c r="D45" s="1" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="2">
+    <row r="46" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="1">
         <v>44</v>
       </c>
-      <c r="B46" s="2">
+      <c r="B46" s="1">
         <v>1460987</v>
       </c>
-      <c r="C46" s="2" t="s">
+      <c r="C46" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="D46" s="2" t="s">
+      <c r="D46" s="1" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="2">
+    <row r="47" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="1">
         <v>45</v>
       </c>
-      <c r="B47" s="2">
+      <c r="B47" s="1">
         <v>1461009</v>
       </c>
-      <c r="C47" s="2" t="s">
+      <c r="C47" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D47" s="2" t="s">
+      <c r="D47" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="2">
+    <row r="48" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="1">
         <v>46</v>
       </c>
-      <c r="B48" s="2">
+      <c r="B48" s="1">
         <v>1461051</v>
       </c>
-      <c r="C48" s="2" t="s">
+      <c r="C48" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D48" s="2" t="s">
+      <c r="D48" s="1" t="s">
         <v>45</v>
       </c>
+      <c r="F48" s="1" t="s">
+        <v>187</v>
+      </c>
     </row>
     <row r="49" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="2">
+      <c r="A49" s="1">
         <v>47</v>
       </c>
-      <c r="B49" s="2">
+      <c r="B49" s="1">
         <v>1461070</v>
       </c>
-      <c r="C49" s="2" t="s">
+      <c r="C49" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D49" s="2" t="s">
+      <c r="D49" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="2">
+      <c r="A50" s="1">
         <v>48</v>
       </c>
-      <c r="B50" s="2">
+      <c r="B50" s="1">
         <v>1461073</v>
       </c>
-      <c r="C50" s="2" t="s">
+      <c r="C50" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="D50" s="2" t="s">
+      <c r="D50" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="2">
+      <c r="A51" s="1">
         <v>49</v>
       </c>
-      <c r="B51" s="2">
+      <c r="B51" s="1">
         <v>1461118</v>
       </c>
-      <c r="C51" s="2" t="s">
+      <c r="C51" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="D51" s="2" t="s">
+      <c r="D51" s="1" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="2">
+      <c r="A52" s="1">
         <v>50</v>
       </c>
-      <c r="B52" s="2">
+      <c r="B52" s="1">
         <v>1461154</v>
       </c>
-      <c r="C52" s="2" t="s">
+      <c r="C52" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D52" s="2" t="s">
+      <c r="D52" s="1" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="2">
+      <c r="A53" s="1">
         <v>51</v>
       </c>
-      <c r="B53" s="2">
+      <c r="B53" s="1">
         <v>1461216</v>
       </c>
-      <c r="C53" s="2" t="s">
+      <c r="C53" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D53" s="2" t="s">
+      <c r="D53" s="1" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="2">
+      <c r="A54" s="1">
         <v>52</v>
       </c>
-      <c r="B54" s="2">
+      <c r="B54" s="1">
         <v>1461219</v>
       </c>
-      <c r="C54" s="2" t="s">
+      <c r="C54" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="D54" s="2" t="s">
+      <c r="D54" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="F54" s="2" t="s">
+      <c r="F54" s="1" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="2">
+      <c r="A55" s="1">
         <v>53</v>
       </c>
-      <c r="B55" s="2">
+      <c r="B55" s="1">
         <v>1461230</v>
       </c>
-      <c r="C55" s="2" t="s">
+      <c r="C55" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="D55" s="2" t="s">
+      <c r="D55" s="1" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="2">
+      <c r="A56" s="1">
         <v>54</v>
       </c>
-      <c r="B56" s="2">
+      <c r="B56" s="1">
         <v>1461234</v>
       </c>
-      <c r="C56" s="2" t="s">
+      <c r="C56" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="D56" s="2" t="s">
+      <c r="D56" s="1" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="2">
+      <c r="A57" s="1">
         <v>55</v>
       </c>
-      <c r="B57" s="2">
+      <c r="B57" s="1">
         <v>1461237</v>
       </c>
-      <c r="C57" s="2" t="s">
+      <c r="C57" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="D57" s="2" t="s">
+      <c r="D57" s="1" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="2">
+      <c r="A58" s="1">
         <v>56</v>
       </c>
-      <c r="B58" s="2">
+      <c r="B58" s="1">
         <v>1461242</v>
       </c>
-      <c r="C58" s="2" t="s">
+      <c r="C58" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="D58" s="2" t="s">
+      <c r="D58" s="1" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="2">
+      <c r="A59" s="1">
         <v>57</v>
       </c>
-      <c r="B59" s="2">
+      <c r="B59" s="1">
         <v>1461246</v>
       </c>
-      <c r="C59" s="2" t="s">
+      <c r="C59" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="D59" s="2" t="s">
+      <c r="D59" s="1" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="2">
+      <c r="A60" s="1">
         <v>58</v>
       </c>
-      <c r="B60" s="2">
+      <c r="B60" s="1">
         <v>1461252</v>
       </c>
-      <c r="C60" s="2" t="s">
+      <c r="C60" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="D60" s="2" t="s">
+      <c r="D60" s="1" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="61" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="2">
+      <c r="A61" s="1">
         <v>59</v>
       </c>
-      <c r="B61" s="2">
+      <c r="B61" s="1">
         <v>1461270</v>
       </c>
-      <c r="C61" s="2" t="s">
+      <c r="C61" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="D61" s="2" t="s">
+      <c r="D61" s="1" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="62" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="2">
+      <c r="A62" s="1">
         <v>60</v>
       </c>
-      <c r="B62" s="2">
+      <c r="B62" s="1">
         <v>1461275</v>
       </c>
-      <c r="C62" s="2" t="s">
+      <c r="C62" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="D62" s="2" t="s">
+      <c r="D62" s="1" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="63" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="2">
+      <c r="A63" s="1">
         <v>61</v>
       </c>
-      <c r="B63" s="2">
+      <c r="B63" s="1">
         <v>1461279</v>
       </c>
-      <c r="C63" s="2" t="s">
+      <c r="C63" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="D63" s="2" t="s">
+      <c r="D63" s="1" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="64" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="2">
+      <c r="A64" s="1">
         <v>62</v>
       </c>
-      <c r="B64" s="2">
+      <c r="B64" s="1">
         <v>1461314</v>
       </c>
-      <c r="C64" s="2" t="s">
+      <c r="C64" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="D64" s="2" t="s">
+      <c r="D64" s="1" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="65" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="2">
+      <c r="A65" s="1">
         <v>63</v>
       </c>
-      <c r="B65" s="2">
+      <c r="B65" s="1">
         <v>1461317</v>
       </c>
-      <c r="C65" s="2" t="s">
+      <c r="C65" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D65" s="2" t="s">
+      <c r="D65" s="1" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="66" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="2">
+      <c r="A66" s="1">
         <v>64</v>
       </c>
-      <c r="B66" s="2">
+      <c r="B66" s="1">
         <v>1461325</v>
       </c>
-      <c r="C66" s="2" t="s">
+      <c r="C66" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="D66" s="2" t="s">
+      <c r="D66" s="1" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="67" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="2">
+      <c r="A67" s="1">
         <v>65</v>
       </c>
-      <c r="B67" s="2">
+      <c r="B67" s="1">
         <v>1461327</v>
       </c>
-      <c r="C67" s="2" t="s">
+      <c r="C67" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="D67" s="2" t="s">
+      <c r="D67" s="1" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="68" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="2">
+      <c r="A68" s="1">
         <v>66</v>
       </c>
-      <c r="B68" s="2">
+      <c r="B68" s="1">
         <v>1461328</v>
       </c>
-      <c r="C68" s="2" t="s">
+      <c r="C68" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="D68" s="2" t="s">
+      <c r="D68" s="1" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="69" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="2">
+      <c r="A69" s="1">
         <v>67</v>
       </c>
-      <c r="B69" s="2">
+      <c r="B69" s="1">
         <v>1461332</v>
       </c>
-      <c r="C69" s="2" t="s">
+      <c r="C69" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="D69" s="2" t="s">
+      <c r="D69" s="1" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="70" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="2">
+      <c r="A70" s="1">
         <v>68</v>
       </c>
-      <c r="B70" s="2">
+      <c r="B70" s="1">
         <v>1461338</v>
       </c>
-      <c r="C70" s="2" t="s">
+      <c r="C70" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="D70" s="2" t="s">
+      <c r="D70" s="1" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="71" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="2">
+      <c r="A71" s="1">
         <v>69</v>
       </c>
-      <c r="B71" s="2">
+      <c r="B71" s="1">
         <v>1461365</v>
       </c>
-      <c r="C71" s="2" t="s">
+      <c r="C71" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="D71" s="2" t="s">
+      <c r="D71" s="1" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="72" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="2">
+      <c r="A72" s="1">
         <v>70</v>
       </c>
-      <c r="B72" s="2">
+      <c r="B72" s="1">
         <v>1461369</v>
       </c>
-      <c r="C72" s="2" t="s">
+      <c r="C72" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="D72" s="2" t="s">
+      <c r="D72" s="1" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="73" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="2">
+      <c r="A73" s="1">
         <v>71</v>
       </c>
-      <c r="B73" s="2">
+      <c r="B73" s="1">
         <v>1461377</v>
       </c>
-      <c r="C73" s="2" t="s">
+      <c r="C73" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="D73" s="2" t="s">
+      <c r="D73" s="1" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="74" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="2">
+      <c r="A74" s="1">
         <v>72</v>
       </c>
-      <c r="B74" s="2">
+      <c r="B74" s="1">
         <v>1461383</v>
       </c>
-      <c r="C74" s="2" t="s">
+      <c r="C74" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="D74" s="2" t="s">
+      <c r="D74" s="1" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="75" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="2">
+      <c r="A75" s="1">
         <v>73</v>
       </c>
-      <c r="B75" s="2">
+      <c r="B75" s="1">
         <v>1461399</v>
       </c>
-      <c r="C75" s="2" t="s">
+      <c r="C75" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="D75" s="2" t="s">
+      <c r="D75" s="1" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="76" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="2">
+      <c r="A76" s="1">
         <v>74</v>
       </c>
-      <c r="B76" s="2">
+      <c r="B76" s="1">
         <v>1461403</v>
       </c>
-      <c r="C76" s="2" t="s">
+      <c r="C76" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D76" s="2" t="s">
+      <c r="D76" s="1" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="77" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="2">
+      <c r="A77" s="1">
         <v>75</v>
       </c>
-      <c r="B77" s="2">
+      <c r="B77" s="1">
         <v>1461407</v>
       </c>
-      <c r="C77" s="2" t="s">
+      <c r="C77" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D77" s="2" t="s">
+      <c r="D77" s="1" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="78" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="2">
+      <c r="A78" s="1">
         <v>76</v>
       </c>
-      <c r="B78" s="2">
+      <c r="B78" s="1">
         <v>1461430</v>
       </c>
-      <c r="C78" s="2" t="s">
+      <c r="C78" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="D78" s="2" t="s">
+      <c r="D78" s="1" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="79" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="2">
+      <c r="A79" s="1">
         <v>77</v>
       </c>
-      <c r="B79" s="2">
+      <c r="B79" s="1">
         <v>1461443</v>
       </c>
-      <c r="C79" s="2" t="s">
+      <c r="C79" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D79" s="2" t="s">
+      <c r="D79" s="1" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="80" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="2">
+      <c r="A80" s="1">
         <v>78</v>
       </c>
-      <c r="B80" s="2">
+      <c r="B80" s="1">
         <v>1461445</v>
       </c>
-      <c r="C80" s="2" t="s">
+      <c r="C80" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="D80" s="2" t="s">
+      <c r="D80" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="81" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="2">
+    <row r="81" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="1">
         <v>79</v>
       </c>
-      <c r="B81" s="2">
+      <c r="B81" s="1">
         <v>1461451</v>
       </c>
-      <c r="C81" s="2" t="s">
+      <c r="C81" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="D81" s="2" t="s">
+      <c r="D81" s="1" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="82" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="2">
+    <row r="82" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="1">
         <v>80</v>
       </c>
-      <c r="B82" s="2">
+      <c r="B82" s="1">
         <v>1461452</v>
       </c>
-      <c r="C82" s="2" t="s">
+      <c r="C82" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="D82" s="2" t="s">
+      <c r="D82" s="1" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="83" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="2">
+    <row r="83" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="1">
         <v>81</v>
       </c>
-      <c r="B83" s="2">
+      <c r="B83" s="1">
         <v>1461453</v>
       </c>
-      <c r="C83" s="2" t="s">
+      <c r="C83" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="D83" s="2" t="s">
+      <c r="D83" s="1" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="84" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="2">
+    <row r="84" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="1">
         <v>82</v>
       </c>
-      <c r="B84" s="2">
+      <c r="B84" s="1">
         <v>1461467</v>
       </c>
-      <c r="C84" s="2" t="s">
+      <c r="C84" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="D84" s="2" t="s">
+      <c r="D84" s="1" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="85" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="2">
+      <c r="F84" s="1" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="1">
         <v>83</v>
       </c>
-      <c r="B85" s="2">
+      <c r="B85" s="1">
         <v>1461489</v>
       </c>
-      <c r="C85" s="2" t="s">
+      <c r="C85" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="D85" s="2" t="s">
+      <c r="D85" s="1" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="86" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="2">
+    <row r="86" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="1">
         <v>84</v>
       </c>
-      <c r="B86" s="2">
+      <c r="B86" s="1">
         <v>1461508</v>
       </c>
-      <c r="C86" s="2" t="s">
+      <c r="C86" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="D86" s="2" t="s">
+      <c r="D86" s="1" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="87" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="2">
+    <row r="87" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="1">
         <v>85</v>
       </c>
-      <c r="B87" s="2">
+      <c r="B87" s="1">
         <v>1461522</v>
       </c>
-      <c r="C87" s="2" t="s">
+      <c r="C87" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="D87" s="2" t="s">
+      <c r="D87" s="1" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="88" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="2">
+    <row r="88" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="1">
         <v>86</v>
       </c>
-      <c r="B88" s="2">
+      <c r="B88" s="1">
         <v>1461531</v>
       </c>
-      <c r="C88" s="2" t="s">
+      <c r="C88" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="D88" s="2" t="s">
+      <c r="D88" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="89" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="2">
+    <row r="89" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="1">
         <v>87</v>
       </c>
-      <c r="B89" s="2">
+      <c r="B89" s="1">
         <v>1461532</v>
       </c>
-      <c r="C89" s="2" t="s">
+      <c r="C89" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="D89" s="2" t="s">
+      <c r="D89" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="90" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="2">
+    <row r="90" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="1">
         <v>88</v>
       </c>
-      <c r="B90" s="2">
+      <c r="B90" s="1">
         <v>1461541</v>
       </c>
-      <c r="C90" s="2" t="s">
+      <c r="C90" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="D90" s="2" t="s">
+      <c r="D90" s="1" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="91" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="2">
+    <row r="91" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="1">
         <v>89</v>
       </c>
-      <c r="B91" s="2">
+      <c r="B91" s="1">
         <v>1461552</v>
       </c>
-      <c r="C91" s="2" t="s">
+      <c r="C91" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="D91" s="2" t="s">
+      <c r="D91" s="1" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="92" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="2">
+    <row r="92" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="1">
         <v>90</v>
       </c>
-      <c r="B92" s="2">
+      <c r="B92" s="1">
         <v>1461561</v>
       </c>
-      <c r="C92" s="2" t="s">
+      <c r="C92" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="D92" s="2" t="s">
+      <c r="D92" s="1" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="93" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="2">
+    <row r="93" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="1">
         <v>91</v>
       </c>
-      <c r="B93" s="2">
+      <c r="B93" s="1">
         <v>1461568</v>
       </c>
-      <c r="C93" s="2" t="s">
+      <c r="C93" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="D93" s="2" t="s">
+      <c r="D93" s="1" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="94" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="2">
+    <row r="94" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="1">
         <v>92</v>
       </c>
-      <c r="B94" s="2">
+      <c r="B94" s="1">
         <v>1461579</v>
       </c>
-      <c r="C94" s="2" t="s">
+      <c r="C94" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="D94" s="2" t="s">
+      <c r="D94" s="1" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="95" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="2">
+    <row r="95" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="1">
         <v>93</v>
       </c>
-      <c r="B95" s="2">
+      <c r="B95" s="1">
         <v>1461585</v>
       </c>
-      <c r="C95" s="2" t="s">
+      <c r="C95" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="D95" s="2" t="s">
+      <c r="D95" s="1" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="96" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="2">
+    <row r="96" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="1">
         <v>94</v>
       </c>
-      <c r="B96" s="2">
+      <c r="B96" s="1">
         <v>1461595</v>
       </c>
-      <c r="C96" s="2" t="s">
+      <c r="C96" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="D96" s="2" t="s">
+      <c r="D96" s="1" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="97" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="2">
+      <c r="A97" s="1">
         <v>95</v>
       </c>
-      <c r="B97" s="2">
+      <c r="B97" s="1">
         <v>1461612</v>
       </c>
-      <c r="C97" s="2" t="s">
+      <c r="C97" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="D97" s="2" t="s">
+      <c r="D97" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="98" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="2">
+      <c r="A98" s="1">
         <v>96</v>
       </c>
-      <c r="B98" s="2">
+      <c r="B98" s="1">
         <v>1461623</v>
       </c>
-      <c r="C98" s="2" t="s">
+      <c r="C98" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D98" s="2" t="s">
+      <c r="D98" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="F98" s="2" t="s">
+      <c r="F98" s="1" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="99" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="2">
+      <c r="A99" s="1">
         <v>97</v>
       </c>
-      <c r="B99" s="2">
+      <c r="B99" s="1">
         <v>1461629</v>
       </c>
-      <c r="C99" s="2" t="s">
+      <c r="C99" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="D99" s="2" t="s">
+      <c r="D99" s="1" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="100" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="2">
+      <c r="A100" s="1">
         <v>98</v>
       </c>
-      <c r="B100" s="2">
+      <c r="B100" s="1">
         <v>1461634</v>
       </c>
-      <c r="C100" s="2" t="s">
+      <c r="C100" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="D100" s="2" t="s">
+      <c r="D100" s="1" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="101" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="2">
+      <c r="A101" s="1">
         <v>99</v>
       </c>
-      <c r="B101" s="2">
+      <c r="B101" s="1">
         <v>1461638</v>
       </c>
-      <c r="C101" s="2" t="s">
+      <c r="C101" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="D101" s="2" t="s">
+      <c r="D101" s="1" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="102" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="2">
+      <c r="A102" s="1">
         <v>100</v>
       </c>
-      <c r="B102" s="2">
+      <c r="B102" s="1">
         <v>1461639</v>
       </c>
-      <c r="C102" s="2" t="s">
+      <c r="C102" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="D102" s="2" t="s">
+      <c r="D102" s="1" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="103" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="2">
+      <c r="A103" s="1">
         <v>101</v>
       </c>
-      <c r="B103" s="2">
+      <c r="B103" s="1">
         <v>1461645</v>
       </c>
-      <c r="C103" s="2" t="s">
+      <c r="C103" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="D103" s="2" t="s">
+      <c r="D103" s="1" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="104" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="2">
+      <c r="A104" s="1">
         <v>102</v>
       </c>
-      <c r="B104" s="2">
+      <c r="B104" s="1">
         <v>1461658</v>
       </c>
-      <c r="C104" s="2" t="s">
+      <c r="C104" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="D104" s="2" t="s">
+      <c r="D104" s="1" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="105" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="2">
+      <c r="A105" s="1">
         <v>103</v>
       </c>
-      <c r="B105" s="2">
+      <c r="B105" s="1">
         <v>1461659</v>
       </c>
-      <c r="C105" s="2" t="s">
+      <c r="C105" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="D105" s="2" t="s">
+      <c r="D105" s="1" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="106" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="2">
+      <c r="A106" s="1">
         <v>104</v>
       </c>
-      <c r="B106" s="2">
+      <c r="B106" s="1">
         <v>1461670</v>
       </c>
-      <c r="C106" s="2" t="s">
+      <c r="C106" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D106" s="2" t="s">
+      <c r="D106" s="1" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="107" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="2">
+      <c r="A107" s="1">
         <v>105</v>
       </c>
-      <c r="B107" s="2">
+      <c r="B107" s="1">
         <v>1461682</v>
       </c>
-      <c r="C107" s="2" t="s">
+      <c r="C107" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="D107" s="2" t="s">
+      <c r="D107" s="1" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="108" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="2">
+      <c r="A108" s="1">
         <v>106</v>
       </c>
-      <c r="B108" s="2">
+      <c r="B108" s="1">
         <v>1461683</v>
       </c>
-      <c r="C108" s="2" t="s">
+      <c r="C108" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="D108" s="2" t="s">
+      <c r="D108" s="1" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="109" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="2">
+      <c r="A109" s="1">
         <v>107</v>
       </c>
-      <c r="B109" s="2">
+      <c r="B109" s="1">
         <v>1461691</v>
       </c>
-      <c r="C109" s="2" t="s">
+      <c r="C109" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="D109" s="2" t="s">
+      <c r="D109" s="1" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="110" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="2">
+      <c r="A110" s="1">
         <v>108</v>
       </c>
-      <c r="B110" s="2">
+      <c r="B110" s="1">
         <v>1461699</v>
       </c>
-      <c r="C110" s="2" t="s">
+      <c r="C110" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D110" s="2" t="s">
+      <c r="D110" s="1" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="111" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="2">
+      <c r="A111" s="1">
         <v>109</v>
       </c>
-      <c r="B111" s="2">
+      <c r="B111" s="1">
         <v>1461710</v>
       </c>
-      <c r="C111" s="2" t="s">
+      <c r="C111" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="D111" s="2" t="s">
+      <c r="D111" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="112" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="2">
+      <c r="A112" s="1">
         <v>110</v>
       </c>
-      <c r="B112" s="2">
+      <c r="B112" s="1">
         <v>1461712</v>
       </c>
-      <c r="C112" s="2" t="s">
+      <c r="C112" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="D112" s="2" t="s">
+      <c r="D112" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="113" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="2">
+      <c r="A113" s="1">
         <v>111</v>
       </c>
-      <c r="B113" s="2">
+      <c r="B113" s="1">
         <v>1461721</v>
       </c>
-      <c r="C113" s="2" t="s">
+      <c r="C113" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="D113" s="2" t="s">
+      <c r="D113" s="1" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="114" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="2">
+      <c r="A114" s="1">
         <v>112</v>
       </c>
-      <c r="B114" s="2">
+      <c r="B114" s="1">
         <v>1461729</v>
       </c>
-      <c r="C114" s="2" t="s">
+      <c r="C114" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="D114" s="2" t="s">
+      <c r="D114" s="1" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="115" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="2">
+      <c r="A115" s="1">
         <v>113</v>
       </c>
-      <c r="B115" s="2">
+      <c r="B115" s="1">
         <v>1461744</v>
       </c>
-      <c r="C115" s="2" t="s">
+      <c r="C115" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="D115" s="2" t="s">
+      <c r="D115" s="1" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="116" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="2">
+      <c r="A116" s="1">
         <v>114</v>
       </c>
-      <c r="B116" s="2">
+      <c r="B116" s="1">
         <v>1461745</v>
       </c>
-      <c r="C116" s="2" t="s">
+      <c r="C116" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="D116" s="2" t="s">
+      <c r="D116" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="F116" s="2" t="s">
+      <c r="F116" s="1" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="117" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="2">
+      <c r="A117" s="1">
         <v>115</v>
       </c>
-      <c r="B117" s="2">
+      <c r="B117" s="1">
         <v>1461748</v>
       </c>
-      <c r="C117" s="2" t="s">
+      <c r="C117" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="D117" s="2" t="s">
+      <c r="D117" s="1" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="118" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="2">
+      <c r="A118" s="1">
         <v>116</v>
       </c>
-      <c r="B118" s="2">
+      <c r="B118" s="1">
         <v>1461749</v>
       </c>
-      <c r="C118" s="2" t="s">
+      <c r="C118" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="D118" s="2" t="s">
+      <c r="D118" s="1" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="119" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="2">
+      <c r="A119" s="1">
         <v>117</v>
       </c>
-      <c r="B119" s="2">
+      <c r="B119" s="1">
         <v>1461774</v>
       </c>
-      <c r="C119" s="2" t="s">
+      <c r="C119" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="D119" s="2" t="s">
+      <c r="D119" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="120" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B120" s="2">
+      <c r="B120" s="1">
         <v>1363131</v>
       </c>
-      <c r="F120" s="2" t="s">
+      <c r="F120" s="1" t="s">
         <v>187</v>
       </c>
     </row>
